--- a/biology/Zoologie/Cricetus/Cricetus.xlsx
+++ b/biology/Zoologie/Cricetus/Cricetus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cricetus est un genre de rongeurs myomorphes de la famille des Cricetidae, seul représentant de la tribu des Cricetini. Il ne comprend qu'une seule espèce actuelle : le Grand Hamster (Cricetus cricetus)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cricetus est un genre de rongeurs myomorphes de la famille des Cricetidae, seul représentant de la tribu des Cricetini. Il ne comprend qu'une seule espèce actuelle : le Grand Hamster (Cricetus cricetus).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Grand Hamster se rencontre en Eurasie depuis la Belgique et le Grand Est français (uniquement en Alsace) jusqu'en Altaï et au nord-ouest de la Chine[2]. Les espèces fossiles ont été toute découvertes en Eurasie[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Grand Hamster se rencontre en Eurasie depuis la Belgique et le Grand Est français (uniquement en Alsace) jusqu'en Altaï et au nord-ouest de la Chine. Les espèces fossiles ont été toute découvertes en Eurasie.
 </t>
         </is>
       </c>
@@ -542,14 +556,51 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ce genre a été décrit pour la première fois en 1779 par le naturaliste allemand Nathanael Gottfried Leske (1751-1786) et la tribu Cricetini en 1945 par le paléontologue américain George Gaylord Simpson (1902-1984). Il a pour synonymes Hamster  et Heliomys[1],[3].
-La seule espèce actuelle du genre étant le Grand Hamster, Cricetus est traditionnellement considéré comme étant un genre monospécifique, mais il comprend aussi des espèces fossiles[3].
-Liste des espèces
-L'espèce actuelle selon Catalogue of Life                                   (27 novembre 2013)[4], ITIS      (27 novembre 2013)[5], Mammal Species of the World (version 3, 2005)  (27 novembre 2013)[6] et NCBI  (27 novembre 2013)[7] est :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit pour la première fois en 1779 par le naturaliste allemand Nathanael Gottfried Leske (1751-1786) et la tribu Cricetini en 1945 par le paléontologue américain George Gaylord Simpson (1902-1984). Il a pour synonymes Hamster  et Heliomys,.
+La seule espèce actuelle du genre étant le Grand Hamster, Cricetus est traditionnellement considéré comme étant un genre monospécifique, mais il comprend aussi des espèces fossiles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cricetus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cricetus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce actuelle selon Catalogue of Life                                   (27 novembre 2013), ITIS      (27 novembre 2013), Mammal Species of the World (version 3, 2005)  (27 novembre 2013) et NCBI  (27 novembre 2013) est :
 Cricetus cricetus (Linnaeus, 1758) - Grand Hamster.
-Les espèces éteintes selon Paleobiology Database                   (27 novembre 2013)[8] sont :
+Les espèces éteintes selon Paleobiology Database                   (27 novembre 2013) sont :
 † Cricetus barrieri Mein &amp; Michaux, 1970 ;
 † Cricetus kormosi Schaub, 1930 ;
 † Cricetus lophidens de Bruijn, Dawson &amp; Mein, 1970.</t>
